--- a/Code/python scripts/database.xlsx
+++ b/Code/python scripts/database.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upcomillas-my.sharepoint.com/personal/201706428_alu_comillas_edu/Documents/IIT/TFM/TFM/Code/python scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_FB3C14C5BB2A9BE629810AEBFCBE8F88B1A97722" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB01DDC-F405-AE49-98C1-6E8BA299BBF0}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_FB3C14C5BB2A9BE629810AEBFCBE8F88B1A97722" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD11273E-7533-46CB-A19A-F0B0D214D7C7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -5395,7 +5408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5486,6 +5499,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5579,7 +5600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5705,6 +5726,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6012,21 +6036,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F772"/>
+  <dimension ref="A1:F773"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
+      <selection activeCell="E773" sqref="E773"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.42578125" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -6046,7 +6070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
@@ -6066,7 +6090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
@@ -6086,7 +6110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
@@ -6106,7 +6130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -6126,7 +6150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -6146,7 +6170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -6166,7 +6190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -6186,7 +6210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -6206,7 +6230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -6226,7 +6250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -6246,7 +6270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -6266,7 +6290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -6286,7 +6310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -6306,7 +6330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -6326,7 +6350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -6346,7 +6370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -6366,7 +6390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -6386,7 +6410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -6406,7 +6430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
@@ -6426,7 +6450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -6446,7 +6470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -6466,7 +6490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
@@ -6486,7 +6510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -6506,7 +6530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
@@ -6526,7 +6550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -6546,7 +6570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
@@ -6566,7 +6590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>67</v>
       </c>
@@ -6586,7 +6610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
@@ -6606,7 +6630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>71</v>
       </c>
@@ -6626,7 +6650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
@@ -6646,7 +6670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
@@ -6666,7 +6690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
@@ -6686,7 +6710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>79</v>
       </c>
@@ -6706,7 +6730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>81</v>
       </c>
@@ -6726,7 +6750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>83</v>
       </c>
@@ -6746,7 +6770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>23</v>
       </c>
@@ -6766,7 +6790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>86</v>
       </c>
@@ -6786,7 +6810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>88</v>
       </c>
@@ -6806,7 +6830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>90</v>
       </c>
@@ -6826,7 +6850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>92</v>
       </c>
@@ -6846,7 +6870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>94</v>
       </c>
@@ -6866,7 +6890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>96</v>
       </c>
@@ -6886,7 +6910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>98</v>
       </c>
@@ -6906,7 +6930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
@@ -6926,7 +6950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -6946,7 +6970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -6966,7 +6990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>104</v>
       </c>
@@ -6986,7 +7010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -7006,7 +7030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -7026,7 +7050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>56</v>
       </c>
@@ -7046,7 +7070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -7066,7 +7090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -7086,7 +7110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>81</v>
       </c>
@@ -7106,7 +7130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -7126,7 +7150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>112</v>
       </c>
@@ -7146,7 +7170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>114</v>
       </c>
@@ -7166,7 +7190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>116</v>
       </c>
@@ -7186,7 +7210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>118</v>
       </c>
@@ -7206,7 +7230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>120</v>
       </c>
@@ -7226,7 +7250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>122</v>
       </c>
@@ -7246,7 +7270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>124</v>
       </c>
@@ -7266,7 +7290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>126</v>
       </c>
@@ -7286,7 +7310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>128</v>
       </c>
@@ -7306,7 +7330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>130</v>
       </c>
@@ -7326,7 +7350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>132</v>
       </c>
@@ -7346,7 +7370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>52</v>
       </c>
@@ -7366,7 +7390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
@@ -7386,7 +7410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>52</v>
       </c>
@@ -7406,7 +7430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>137</v>
       </c>
@@ -7426,7 +7450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>52</v>
       </c>
@@ -7446,7 +7470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>140</v>
       </c>
@@ -7466,7 +7490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>142</v>
       </c>
@@ -7486,7 +7510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>144</v>
       </c>
@@ -7506,7 +7530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>146</v>
       </c>
@@ -7526,7 +7550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>148</v>
       </c>
@@ -7546,7 +7570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>23</v>
       </c>
@@ -7566,7 +7590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>151</v>
       </c>
@@ -7586,7 +7610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>41</v>
       </c>
@@ -7606,7 +7630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>154</v>
       </c>
@@ -7626,7 +7650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>156</v>
       </c>
@@ -7646,7 +7670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>158</v>
       </c>
@@ -7666,7 +7690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>160</v>
       </c>
@@ -7686,7 +7710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>162</v>
       </c>
@@ -7706,7 +7730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>164</v>
       </c>
@@ -7726,7 +7750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>86</v>
       </c>
@@ -7746,7 +7770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>167</v>
       </c>
@@ -7766,7 +7790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>169</v>
       </c>
@@ -7786,7 +7810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>156</v>
       </c>
@@ -7806,7 +7830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>160</v>
       </c>
@@ -7826,7 +7850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>173</v>
       </c>
@@ -7846,7 +7870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>175</v>
       </c>
@@ -7866,7 +7890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>86</v>
       </c>
@@ -7886,7 +7910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>178</v>
       </c>
@@ -7906,7 +7930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>41</v>
       </c>
@@ -7926,7 +7950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>181</v>
       </c>
@@ -7946,7 +7970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>181</v>
       </c>
@@ -7966,7 +7990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>41</v>
       </c>
@@ -7986,7 +8010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>86</v>
       </c>
@@ -8006,7 +8030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>86</v>
       </c>
@@ -8026,7 +8050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>186</v>
       </c>
@@ -8046,7 +8070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>41</v>
       </c>
@@ -8066,7 +8090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>189</v>
       </c>
@@ -8086,7 +8110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>191</v>
       </c>
@@ -8106,7 +8130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>193</v>
       </c>
@@ -8126,7 +8150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>196</v>
       </c>
@@ -8146,7 +8170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>200</v>
       </c>
@@ -8166,7 +8190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>202</v>
       </c>
@@ -8186,7 +8210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>204</v>
       </c>
@@ -8206,7 +8230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>206</v>
       </c>
@@ -8226,7 +8250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>208</v>
       </c>
@@ -8246,7 +8270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>210</v>
       </c>
@@ -8266,7 +8290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>212</v>
       </c>
@@ -8286,7 +8310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>214</v>
       </c>
@@ -8306,7 +8330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>216</v>
       </c>
@@ -8326,7 +8350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>218</v>
       </c>
@@ -8346,7 +8370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>220</v>
       </c>
@@ -8366,7 +8390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>222</v>
       </c>
@@ -8386,7 +8410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>224</v>
       </c>
@@ -8406,7 +8430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>226</v>
       </c>
@@ -8426,7 +8450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>228</v>
       </c>
@@ -8446,7 +8470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>231</v>
       </c>
@@ -8466,7 +8490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>233</v>
       </c>
@@ -8486,7 +8510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>235</v>
       </c>
@@ -8506,7 +8530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>238</v>
       </c>
@@ -8526,7 +8550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>240</v>
       </c>
@@ -8546,7 +8570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>242</v>
       </c>
@@ -8566,7 +8590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>244</v>
       </c>
@@ -8586,7 +8610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>246</v>
       </c>
@@ -8606,7 +8630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>248</v>
       </c>
@@ -8626,7 +8650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>250</v>
       </c>
@@ -8646,7 +8670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>252</v>
       </c>
@@ -8666,7 +8690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>254</v>
       </c>
@@ -8686,7 +8710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>256</v>
       </c>
@@ -8706,7 +8730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>258</v>
       </c>
@@ -8726,7 +8750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>260</v>
       </c>
@@ -8746,7 +8770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>263</v>
       </c>
@@ -8766,7 +8790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>265</v>
       </c>
@@ -8786,7 +8810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>267</v>
       </c>
@@ -8806,7 +8830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>269</v>
       </c>
@@ -8826,7 +8850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>272</v>
       </c>
@@ -8846,7 +8870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>274</v>
       </c>
@@ -8866,7 +8890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>276</v>
       </c>
@@ -8886,7 +8910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>278</v>
       </c>
@@ -8906,7 +8930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>280</v>
       </c>
@@ -8926,7 +8950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>282</v>
       </c>
@@ -8946,7 +8970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>284</v>
       </c>
@@ -8966,7 +8990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>286</v>
       </c>
@@ -8986,7 +9010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>288</v>
       </c>
@@ -9006,7 +9030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>290</v>
       </c>
@@ -9026,7 +9050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>292</v>
       </c>
@@ -9046,7 +9070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>294</v>
       </c>
@@ -9066,7 +9090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>296</v>
       </c>
@@ -9086,7 +9110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>298</v>
       </c>
@@ -9106,7 +9130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>301</v>
       </c>
@@ -9126,7 +9150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>303</v>
       </c>
@@ -9146,7 +9170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>305</v>
       </c>
@@ -9166,7 +9190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>307</v>
       </c>
@@ -9186,7 +9210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>309</v>
       </c>
@@ -9206,7 +9230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>311</v>
       </c>
@@ -9226,7 +9250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>313</v>
       </c>
@@ -9246,7 +9270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>315</v>
       </c>
@@ -9266,7 +9290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>317</v>
       </c>
@@ -9286,7 +9310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>321</v>
       </c>
@@ -9306,7 +9330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>324</v>
       </c>
@@ -9326,7 +9350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>326</v>
       </c>
@@ -9346,7 +9370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>328</v>
       </c>
@@ -9366,7 +9390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>330</v>
       </c>
@@ -9386,7 +9410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>332</v>
       </c>
@@ -9406,7 +9430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>334</v>
       </c>
@@ -9426,7 +9450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>336</v>
       </c>
@@ -9446,7 +9470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>338</v>
       </c>
@@ -9466,7 +9490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>340</v>
       </c>
@@ -9486,7 +9510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>342</v>
       </c>
@@ -9506,7 +9530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>344</v>
       </c>
@@ -9526,7 +9550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>346</v>
       </c>
@@ -9546,7 +9570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>348</v>
       </c>
@@ -9566,7 +9590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>350</v>
       </c>
@@ -9586,7 +9610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>353</v>
       </c>
@@ -9606,7 +9630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>355</v>
       </c>
@@ -9626,7 +9650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>357</v>
       </c>
@@ -9646,7 +9670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>359</v>
       </c>
@@ -9666,7 +9690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>361</v>
       </c>
@@ -9686,7 +9710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>363</v>
       </c>
@@ -9706,7 +9730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>365</v>
       </c>
@@ -9726,7 +9750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>367</v>
       </c>
@@ -9746,7 +9770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>369</v>
       </c>
@@ -9766,7 +9790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>371</v>
       </c>
@@ -9786,7 +9810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>373</v>
       </c>
@@ -9806,7 +9830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>375</v>
       </c>
@@ -9826,7 +9850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>377</v>
       </c>
@@ -9846,7 +9870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>379</v>
       </c>
@@ -9866,7 +9890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
         <v>381</v>
       </c>
@@ -9886,7 +9910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>383</v>
       </c>
@@ -9906,7 +9930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>385</v>
       </c>
@@ -9926,7 +9950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>387</v>
       </c>
@@ -9946,7 +9970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="11" t="s">
         <v>389</v>
       </c>
@@ -9966,7 +9990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>391</v>
       </c>
@@ -9986,7 +10010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>393</v>
       </c>
@@ -10006,7 +10030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>395</v>
       </c>
@@ -10026,7 +10050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11" t="s">
         <v>397</v>
       </c>
@@ -10046,7 +10070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11" t="s">
         <v>399</v>
       </c>
@@ -10066,7 +10090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>401</v>
       </c>
@@ -10086,7 +10110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>403</v>
       </c>
@@ -10106,7 +10130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>405</v>
       </c>
@@ -10126,7 +10150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>408</v>
       </c>
@@ -10146,7 +10170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>410</v>
       </c>
@@ -10166,7 +10190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>412</v>
       </c>
@@ -10186,7 +10210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>414</v>
       </c>
@@ -10206,7 +10230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11" t="s">
         <v>416</v>
       </c>
@@ -10226,7 +10250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>418</v>
       </c>
@@ -10246,7 +10270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>420</v>
       </c>
@@ -10266,7 +10290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11" t="s">
         <v>422</v>
       </c>
@@ -10286,7 +10310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
         <v>424</v>
       </c>
@@ -10306,7 +10330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>427</v>
       </c>
@@ -10326,7 +10350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>429</v>
       </c>
@@ -10346,7 +10370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>431</v>
       </c>
@@ -10366,7 +10390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
         <v>433</v>
       </c>
@@ -10386,7 +10410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>435</v>
       </c>
@@ -10406,7 +10430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11" t="s">
         <v>437</v>
       </c>
@@ -10426,7 +10450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
         <v>439</v>
       </c>
@@ -10446,7 +10470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11" t="s">
         <v>441</v>
       </c>
@@ -10466,7 +10490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11" t="s">
         <v>443</v>
       </c>
@@ -10486,7 +10510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11" t="s">
         <v>445</v>
       </c>
@@ -10506,7 +10530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
         <v>447</v>
       </c>
@@ -10526,7 +10550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11" t="s">
         <v>449</v>
       </c>
@@ -10546,7 +10570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>451</v>
       </c>
@@ -10566,7 +10590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>453</v>
       </c>
@@ -10586,7 +10610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>455</v>
       </c>
@@ -10606,7 +10630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>457</v>
       </c>
@@ -10626,7 +10650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>459</v>
       </c>
@@ -10646,7 +10670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>461</v>
       </c>
@@ -10666,7 +10690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>463</v>
       </c>
@@ -10686,7 +10710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>465</v>
       </c>
@@ -10706,7 +10730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>467</v>
       </c>
@@ -10726,7 +10750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>451</v>
       </c>
@@ -10746,7 +10770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>470</v>
       </c>
@@ -10766,7 +10790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>472</v>
       </c>
@@ -10786,7 +10810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>474</v>
       </c>
@@ -10806,7 +10830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>470</v>
       </c>
@@ -10826,7 +10850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>477</v>
       </c>
@@ -10846,7 +10870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>479</v>
       </c>
@@ -10866,7 +10890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>481</v>
       </c>
@@ -10886,7 +10910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>484</v>
       </c>
@@ -10906,7 +10930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>486</v>
       </c>
@@ -10926,7 +10950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>488</v>
       </c>
@@ -10946,7 +10970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>490</v>
       </c>
@@ -10966,7 +10990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>492</v>
       </c>
@@ -10986,7 +11010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>494</v>
       </c>
@@ -11006,7 +11030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>496</v>
       </c>
@@ -11026,7 +11050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>498</v>
       </c>
@@ -11046,7 +11070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>500</v>
       </c>
@@ -11066,7 +11090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>502</v>
       </c>
@@ -11086,7 +11110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>504</v>
       </c>
@@ -11106,7 +11130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>506</v>
       </c>
@@ -11126,7 +11150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>508</v>
       </c>
@@ -11144,7 +11168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>451</v>
       </c>
@@ -11162,7 +11186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>511</v>
       </c>
@@ -11180,7 +11204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>513</v>
       </c>
@@ -11198,7 +11222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>515</v>
       </c>
@@ -11216,7 +11240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>517</v>
       </c>
@@ -11234,7 +11258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>519</v>
       </c>
@@ -11252,7 +11276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>521</v>
       </c>
@@ -11270,7 +11294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>523</v>
       </c>
@@ -11288,7 +11312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>525</v>
       </c>
@@ -11306,7 +11330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>527</v>
       </c>
@@ -11324,7 +11348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>529</v>
       </c>
@@ -11342,7 +11366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>531</v>
       </c>
@@ -11360,7 +11384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>533</v>
       </c>
@@ -11378,7 +11402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>535</v>
       </c>
@@ -11396,7 +11420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>537</v>
       </c>
@@ -11414,7 +11438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>539</v>
       </c>
@@ -11432,7 +11456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>541</v>
       </c>
@@ -11450,7 +11474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>543</v>
       </c>
@@ -11468,7 +11492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>545</v>
       </c>
@@ -11486,7 +11510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>547</v>
       </c>
@@ -11504,7 +11528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>549</v>
       </c>
@@ -11522,7 +11546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>551</v>
       </c>
@@ -11540,7 +11564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>539</v>
       </c>
@@ -11558,7 +11582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>554</v>
       </c>
@@ -11576,7 +11600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>556</v>
       </c>
@@ -11594,7 +11618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>558</v>
       </c>
@@ -11612,7 +11636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>539</v>
       </c>
@@ -11630,7 +11654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>561</v>
       </c>
@@ -11648,7 +11672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>470</v>
       </c>
@@ -11666,7 +11690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>564</v>
       </c>
@@ -11684,7 +11708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>554</v>
       </c>
@@ -11702,7 +11726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>567</v>
       </c>
@@ -11720,7 +11744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>470</v>
       </c>
@@ -11738,7 +11762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>570</v>
       </c>
@@ -11756,7 +11780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>539</v>
       </c>
@@ -11774,7 +11798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>539</v>
       </c>
@@ -11792,7 +11816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>574</v>
       </c>
@@ -11810,7 +11834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>576</v>
       </c>
@@ -11828,7 +11852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>554</v>
       </c>
@@ -11846,7 +11870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>579</v>
       </c>
@@ -11864,7 +11888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>581</v>
       </c>
@@ -11882,7 +11906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>583</v>
       </c>
@@ -11900,7 +11924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>585</v>
       </c>
@@ -11918,7 +11942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>459</v>
       </c>
@@ -11936,7 +11960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>459</v>
       </c>
@@ -11954,7 +11978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>589</v>
       </c>
@@ -11972,7 +11996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>561</v>
       </c>
@@ -11990,7 +12014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>592</v>
       </c>
@@ -12008,7 +12032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>459</v>
       </c>
@@ -12026,7 +12050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>459</v>
       </c>
@@ -12044,7 +12068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>554</v>
       </c>
@@ -12062,7 +12086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>597</v>
       </c>
@@ -12080,7 +12104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>597</v>
       </c>
@@ -12098,7 +12122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>459</v>
       </c>
@@ -12116,7 +12140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>533</v>
       </c>
@@ -12134,7 +12158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>601</v>
       </c>
@@ -12152,7 +12176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>459</v>
       </c>
@@ -12170,7 +12194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>604</v>
       </c>
@@ -12188,7 +12212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>606</v>
       </c>
@@ -12206,7 +12230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>608</v>
       </c>
@@ -12224,7 +12248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>592</v>
       </c>
@@ -12242,7 +12266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>611</v>
       </c>
@@ -12260,7 +12284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>613</v>
       </c>
@@ -12278,7 +12302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>615</v>
       </c>
@@ -12296,7 +12320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>617</v>
       </c>
@@ -12314,7 +12338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>459</v>
       </c>
@@ -12332,7 +12356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>597</v>
       </c>
@@ -12350,7 +12374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>459</v>
       </c>
@@ -12368,7 +12392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>459</v>
       </c>
@@ -12386,7 +12410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>623</v>
       </c>
@@ -12404,7 +12428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>625</v>
       </c>
@@ -12422,7 +12446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>504</v>
       </c>
@@ -12440,7 +12464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>628</v>
       </c>
@@ -12458,7 +12482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>630</v>
       </c>
@@ -12476,7 +12500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>632</v>
       </c>
@@ -12494,7 +12518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>634</v>
       </c>
@@ -12512,7 +12536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>636</v>
       </c>
@@ -12530,7 +12554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>638</v>
       </c>
@@ -12548,7 +12572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>640</v>
       </c>
@@ -12566,7 +12590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>642</v>
       </c>
@@ -12584,7 +12608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>644</v>
       </c>
@@ -12602,7 +12626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>646</v>
       </c>
@@ -12620,7 +12644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>648</v>
       </c>
@@ -12638,7 +12662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>650</v>
       </c>
@@ -12656,7 +12680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>652</v>
       </c>
@@ -12674,7 +12698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>654</v>
       </c>
@@ -12692,7 +12716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>656</v>
       </c>
@@ -12710,7 +12734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>658</v>
       </c>
@@ -12728,7 +12752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>660</v>
       </c>
@@ -12746,7 +12770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>662</v>
       </c>
@@ -12764,7 +12788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>664</v>
       </c>
@@ -12782,7 +12806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>666</v>
       </c>
@@ -12800,7 +12824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>668</v>
       </c>
@@ -12818,7 +12842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>670</v>
       </c>
@@ -12836,7 +12860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>672</v>
       </c>
@@ -12854,7 +12878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>674</v>
       </c>
@@ -12872,7 +12896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>676</v>
       </c>
@@ -12890,7 +12914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>678</v>
       </c>
@@ -12908,7 +12932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>676</v>
       </c>
@@ -12926,7 +12950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>681</v>
       </c>
@@ -12944,7 +12968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>683</v>
       </c>
@@ -12962,7 +12986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>685</v>
       </c>
@@ -12980,7 +13004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>687</v>
       </c>
@@ -12998,7 +13022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>689</v>
       </c>
@@ -13016,7 +13040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>691</v>
       </c>
@@ -13034,7 +13058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>693</v>
       </c>
@@ -13052,7 +13076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>695</v>
       </c>
@@ -13070,7 +13094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>697</v>
       </c>
@@ -13088,7 +13112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="365" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>699</v>
       </c>
@@ -13106,7 +13130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>701</v>
       </c>
@@ -13124,7 +13148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>703</v>
       </c>
@@ -13142,7 +13166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="14" t="s">
         <v>705</v>
       </c>
@@ -13160,7 +13184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>707</v>
       </c>
@@ -13178,7 +13202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>709</v>
       </c>
@@ -13196,7 +13220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>711</v>
       </c>
@@ -13214,7 +13238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>713</v>
       </c>
@@ -13232,7 +13256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>715</v>
       </c>
@@ -13250,7 +13274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>717</v>
       </c>
@@ -13268,7 +13292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>719</v>
       </c>
@@ -13286,7 +13310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>721</v>
       </c>
@@ -13304,7 +13328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>723</v>
       </c>
@@ -13322,7 +13346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>725</v>
       </c>
@@ -13340,7 +13364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>727</v>
       </c>
@@ -13358,7 +13382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>729</v>
       </c>
@@ -13376,7 +13400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>731</v>
       </c>
@@ -13394,7 +13418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>733</v>
       </c>
@@ -13412,7 +13436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>735</v>
       </c>
@@ -13430,7 +13454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>737</v>
       </c>
@@ -13448,7 +13472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>739</v>
       </c>
@@ -13466,7 +13490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>741</v>
       </c>
@@ -13484,7 +13508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>743</v>
       </c>
@@ -13502,7 +13526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>745</v>
       </c>
@@ -13520,7 +13544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>747</v>
       </c>
@@ -13538,7 +13562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>749</v>
       </c>
@@ -13556,7 +13580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>751</v>
       </c>
@@ -13574,7 +13598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>753</v>
       </c>
@@ -13592,7 +13616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>755</v>
       </c>
@@ -13610,7 +13634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>757</v>
       </c>
@@ -13628,7 +13652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>759</v>
       </c>
@@ -13646,7 +13670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>761</v>
       </c>
@@ -13664,7 +13688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>763</v>
       </c>
@@ -13682,7 +13706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>765</v>
       </c>
@@ -13700,7 +13724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>767</v>
       </c>
@@ -13718,7 +13742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>769</v>
       </c>
@@ -13736,7 +13760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>771</v>
       </c>
@@ -13754,7 +13778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>707</v>
       </c>
@@ -13772,7 +13796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>774</v>
       </c>
@@ -13790,7 +13814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>660</v>
       </c>
@@ -13808,7 +13832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>703</v>
       </c>
@@ -13826,7 +13850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>776</v>
       </c>
@@ -13844,7 +13868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>778</v>
       </c>
@@ -13862,7 +13886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>780</v>
       </c>
@@ -13880,7 +13904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>782</v>
       </c>
@@ -13898,7 +13922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>784</v>
       </c>
@@ -13916,7 +13940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>786</v>
       </c>
@@ -13934,7 +13958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>788</v>
       </c>
@@ -13952,7 +13976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>790</v>
       </c>
@@ -13970,7 +13994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>792</v>
       </c>
@@ -13988,7 +14012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>794</v>
       </c>
@@ -14006,7 +14030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>796</v>
       </c>
@@ -14024,7 +14048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>798</v>
       </c>
@@ -14042,7 +14066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>800</v>
       </c>
@@ -14060,7 +14084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>802</v>
       </c>
@@ -14078,7 +14102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>804</v>
       </c>
@@ -14096,7 +14120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>806</v>
       </c>
@@ -14114,7 +14138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>808</v>
       </c>
@@ -14132,7 +14156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>810</v>
       </c>
@@ -14150,7 +14174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="424" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>812</v>
       </c>
@@ -14168,7 +14192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>814</v>
       </c>
@@ -14186,7 +14210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
         <v>816</v>
       </c>
@@ -14204,7 +14228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>818</v>
       </c>
@@ -14222,7 +14246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
         <v>820</v>
       </c>
@@ -14240,7 +14264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>822</v>
       </c>
@@ -14258,7 +14282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="430" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>824</v>
       </c>
@@ -14276,7 +14300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>826</v>
       </c>
@@ -14294,7 +14318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>828</v>
       </c>
@@ -14312,7 +14336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>830</v>
       </c>
@@ -14330,7 +14354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>832</v>
       </c>
@@ -14348,7 +14372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>834</v>
       </c>
@@ -14366,7 +14390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>836</v>
       </c>
@@ -14384,7 +14408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>838</v>
       </c>
@@ -14402,7 +14426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
         <v>840</v>
       </c>
@@ -14420,7 +14444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>842</v>
       </c>
@@ -14438,7 +14462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="440" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
         <v>844</v>
       </c>
@@ -14456,7 +14480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>846</v>
       </c>
@@ -14474,7 +14498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>848</v>
       </c>
@@ -14492,7 +14516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>850</v>
       </c>
@@ -14510,7 +14534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>852</v>
       </c>
@@ -14528,7 +14552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="445" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>854</v>
       </c>
@@ -14546,7 +14570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
         <v>856</v>
       </c>
@@ -14564,7 +14588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>858</v>
       </c>
@@ -14582,7 +14606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>860</v>
       </c>
@@ -14600,7 +14624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>862</v>
       </c>
@@ -14618,7 +14642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>864</v>
       </c>
@@ -14636,7 +14660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>866</v>
       </c>
@@ -14654,7 +14678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>868</v>
       </c>
@@ -14672,7 +14696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>870</v>
       </c>
@@ -14690,7 +14714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>872</v>
       </c>
@@ -14708,7 +14732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>874</v>
       </c>
@@ -14726,7 +14750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>876</v>
       </c>
@@ -14744,7 +14768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>878</v>
       </c>
@@ -14762,7 +14786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>880</v>
       </c>
@@ -14780,7 +14804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>882</v>
       </c>
@@ -14798,7 +14822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>884</v>
       </c>
@@ -14816,7 +14840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>886</v>
       </c>
@@ -14834,7 +14858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>888</v>
       </c>
@@ -14852,7 +14876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>890</v>
       </c>
@@ -14870,7 +14894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>892</v>
       </c>
@@ -14888,7 +14912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>894</v>
       </c>
@@ -14906,7 +14930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>896</v>
       </c>
@@ -14924,7 +14948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>898</v>
       </c>
@@ -14942,7 +14966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>900</v>
       </c>
@@ -14960,7 +14984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>902</v>
       </c>
@@ -14978,7 +15002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>904</v>
       </c>
@@ -14996,7 +15020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>906</v>
       </c>
@@ -15014,7 +15038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>908</v>
       </c>
@@ -15032,7 +15056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>910</v>
       </c>
@@ -15050,7 +15074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>912</v>
       </c>
@@ -15068,7 +15092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>914</v>
       </c>
@@ -15086,7 +15110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>916</v>
       </c>
@@ -15104,7 +15128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>918</v>
       </c>
@@ -15122,7 +15146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>920</v>
       </c>
@@ -15140,7 +15164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>922</v>
       </c>
@@ -15158,7 +15182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="480" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>924</v>
       </c>
@@ -15176,7 +15200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>926</v>
       </c>
@@ -15194,7 +15218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>928</v>
       </c>
@@ -15212,7 +15236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="483" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>930</v>
       </c>
@@ -15230,7 +15254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="484" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>932</v>
       </c>
@@ -15248,7 +15272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>934</v>
       </c>
@@ -15266,7 +15290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>936</v>
       </c>
@@ -15284,7 +15308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>938</v>
       </c>
@@ -15302,7 +15326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>940</v>
       </c>
@@ -15320,7 +15344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>942</v>
       </c>
@@ -15338,7 +15362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>944</v>
       </c>
@@ -15356,7 +15380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>946</v>
       </c>
@@ -15374,7 +15398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>948</v>
       </c>
@@ -15392,7 +15416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>950</v>
       </c>
@@ -15410,7 +15434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>952</v>
       </c>
@@ -15428,7 +15452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>954</v>
       </c>
@@ -15446,7 +15470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>956</v>
       </c>
@@ -15464,7 +15488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>958</v>
       </c>
@@ -15482,7 +15506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>960</v>
       </c>
@@ -15500,7 +15524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>962</v>
       </c>
@@ -15518,7 +15542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>964</v>
       </c>
@@ -15536,7 +15560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>966</v>
       </c>
@@ -15554,7 +15578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>968</v>
       </c>
@@ -15572,7 +15596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>970</v>
       </c>
@@ -15590,7 +15614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>972</v>
       </c>
@@ -15608,7 +15632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>974</v>
       </c>
@@ -15626,7 +15650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>976</v>
       </c>
@@ -15644,7 +15668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="15" t="s">
         <v>978</v>
       </c>
@@ -15664,7 +15688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="15" t="s">
         <v>981</v>
       </c>
@@ -15684,7 +15708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="15" t="s">
         <v>983</v>
       </c>
@@ -15704,7 +15728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="15" t="s">
         <v>985</v>
       </c>
@@ -15724,7 +15748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="15" t="s">
         <v>987</v>
       </c>
@@ -15744,7 +15768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="15" t="s">
         <v>989</v>
       </c>
@@ -15764,7 +15788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="15" t="s">
         <v>991</v>
       </c>
@@ -15784,7 +15808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="15" t="s">
         <v>993</v>
       </c>
@@ -15804,7 +15828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="15" t="s">
         <v>994</v>
       </c>
@@ -15824,7 +15848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="15" t="s">
         <v>996</v>
       </c>
@@ -15844,7 +15868,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="517" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="15" t="s">
         <v>998</v>
       </c>
@@ -15864,7 +15888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="15" t="s">
         <v>1000</v>
       </c>
@@ -15884,7 +15908,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="519" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="15" t="s">
         <v>1002</v>
       </c>
@@ -15904,7 +15928,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="520" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="15" t="s">
         <v>1004</v>
       </c>
@@ -15924,7 +15948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="15" t="s">
         <v>1006</v>
       </c>
@@ -15944,7 +15968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="15" t="s">
         <v>1010</v>
       </c>
@@ -15964,7 +15988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="15" t="s">
         <v>1012</v>
       </c>
@@ -15984,7 +16008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="15" t="s">
         <v>1014</v>
       </c>
@@ -16004,7 +16028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="15" t="s">
         <v>1017</v>
       </c>
@@ -16024,7 +16048,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="526" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="15" t="s">
         <v>1019</v>
       </c>
@@ -16044,7 +16068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="15" t="s">
         <v>1021</v>
       </c>
@@ -16064,7 +16088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="528" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="15" t="s">
         <v>1022</v>
       </c>
@@ -16084,7 +16108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="529" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="15" t="s">
         <v>1024</v>
       </c>
@@ -16104,7 +16128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="15" t="s">
         <v>1026</v>
       </c>
@@ -16124,7 +16148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="15" t="s">
         <v>1029</v>
       </c>
@@ -16144,7 +16168,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="532" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="15" t="s">
         <v>1031</v>
       </c>
@@ -16164,7 +16188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="15" t="s">
         <v>1033</v>
       </c>
@@ -16184,7 +16208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="15" t="s">
         <v>1035</v>
       </c>
@@ -16204,7 +16228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="15" t="s">
         <v>1037</v>
       </c>
@@ -16224,7 +16248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="15" t="s">
         <v>1040</v>
       </c>
@@ -16244,7 +16268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="15" t="s">
         <v>1042</v>
       </c>
@@ -16264,7 +16288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="538" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="15" t="s">
         <v>1043</v>
       </c>
@@ -16284,7 +16308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="15" t="s">
         <v>1045</v>
       </c>
@@ -16304,7 +16328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="540" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="15" t="s">
         <v>1046</v>
       </c>
@@ -16324,7 +16348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="15" t="s">
         <v>1048</v>
       </c>
@@ -16344,7 +16368,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="542" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="16" t="s">
         <v>1053</v>
       </c>
@@ -16364,7 +16388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="16" t="s">
         <v>1055</v>
       </c>
@@ -16384,7 +16408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="16" t="s">
         <v>1057</v>
       </c>
@@ -16404,7 +16428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="16" t="s">
         <v>1059</v>
       </c>
@@ -16424,7 +16448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="16" t="s">
         <v>1062</v>
       </c>
@@ -16444,7 +16468,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="547" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="16" t="s">
         <v>1067</v>
       </c>
@@ -16464,7 +16488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="548" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="16" t="s">
         <v>1069</v>
       </c>
@@ -16482,7 +16506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="549" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="16" t="s">
         <v>1070</v>
       </c>
@@ -16502,7 +16526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="16" t="s">
         <v>1072</v>
       </c>
@@ -16522,7 +16546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="16" t="s">
         <v>1075</v>
       </c>
@@ -16542,7 +16566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="552" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="16" t="s">
         <v>1076</v>
       </c>
@@ -16562,7 +16586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="16" t="s">
         <v>1080</v>
       </c>
@@ -16582,7 +16606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="16" t="s">
         <v>1081</v>
       </c>
@@ -16602,7 +16626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="16" t="s">
         <v>1082</v>
       </c>
@@ -16622,7 +16646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="16" t="s">
         <v>1085</v>
       </c>
@@ -16642,7 +16666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="16" t="s">
         <v>1087</v>
       </c>
@@ -16662,7 +16686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="16" t="s">
         <v>1088</v>
       </c>
@@ -16682,7 +16706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="16" t="s">
         <v>1089</v>
       </c>
@@ -16702,7 +16726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="16" t="s">
         <v>1091</v>
       </c>
@@ -16722,7 +16746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="16" t="s">
         <v>1093</v>
       </c>
@@ -16742,7 +16766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="562" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="16" t="s">
         <v>1095</v>
       </c>
@@ -16762,7 +16786,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="563" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="16" t="s">
         <v>1098</v>
       </c>
@@ -16782,7 +16806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="16" t="s">
         <v>1100</v>
       </c>
@@ -16802,7 +16826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="16" t="s">
         <v>1101</v>
       </c>
@@ -16822,7 +16846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="566" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="16" t="s">
         <v>1104</v>
       </c>
@@ -16842,7 +16866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="16" t="s">
         <v>1105</v>
       </c>
@@ -16862,7 +16886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="16" t="s">
         <v>1107</v>
       </c>
@@ -16882,7 +16906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
         <v>1110</v>
       </c>
@@ -16902,7 +16926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="16" t="s">
         <v>1113</v>
       </c>
@@ -16922,7 +16946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="16" t="s">
         <v>1062</v>
       </c>
@@ -16942,7 +16966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="16" t="s">
         <v>1117</v>
       </c>
@@ -16962,7 +16986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="16" t="s">
         <v>1119</v>
       </c>
@@ -16982,7 +17006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="16" t="s">
         <v>1121</v>
       </c>
@@ -17002,7 +17026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="16" t="s">
         <v>1122</v>
       </c>
@@ -17022,7 +17046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="16" t="s">
         <v>1124</v>
       </c>
@@ -17042,7 +17066,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="577" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="16" t="s">
         <v>1129</v>
       </c>
@@ -17062,7 +17086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="16" t="s">
         <v>1131</v>
       </c>
@@ -17082,7 +17106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="16" t="s">
         <v>1133</v>
       </c>
@@ -17102,7 +17126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="580" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="16" t="s">
         <v>1082</v>
       </c>
@@ -17122,7 +17146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="581" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="16" t="s">
         <v>1134</v>
       </c>
@@ -17142,7 +17166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="582" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="16" t="s">
         <v>1135</v>
       </c>
@@ -17162,7 +17186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="583" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="16" t="s">
         <v>1137</v>
       </c>
@@ -17182,7 +17206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="584" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="16" t="s">
         <v>1139</v>
       </c>
@@ -17202,7 +17226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="585" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="16" t="s">
         <v>1141</v>
       </c>
@@ -17222,7 +17246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="586" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="16" t="s">
         <v>1142</v>
       </c>
@@ -17242,7 +17266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="587" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="16" t="s">
         <v>1144</v>
       </c>
@@ -17262,7 +17286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="588" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="16" t="s">
         <v>1145</v>
       </c>
@@ -17282,7 +17306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="16" t="s">
         <v>1146</v>
       </c>
@@ -17302,7 +17326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="590" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="16" t="s">
         <v>1085</v>
       </c>
@@ -17322,7 +17346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="591" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="16" t="s">
         <v>1107</v>
       </c>
@@ -17342,7 +17366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="16" t="s">
         <v>1149</v>
       </c>
@@ -17362,7 +17386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="593" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="16" t="s">
         <v>1151</v>
       </c>
@@ -17382,7 +17406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="594" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="16" t="s">
         <v>1153</v>
       </c>
@@ -17402,7 +17426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="16" t="s">
         <v>1155</v>
       </c>
@@ -17422,7 +17446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="596" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="16" t="s">
         <v>1156</v>
       </c>
@@ -17442,7 +17466,7 @@
         <v>5726</v>
       </c>
     </row>
-    <row r="597" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="16" t="s">
         <v>1159</v>
       </c>
@@ -17462,7 +17486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="598" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="16" t="s">
         <v>1160</v>
       </c>
@@ -17482,7 +17506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="16" t="s">
         <v>1162</v>
       </c>
@@ -17502,7 +17526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="16" t="s">
         <v>1163</v>
       </c>
@@ -17522,7 +17546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="601" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="16" t="s">
         <v>1164</v>
       </c>
@@ -17542,7 +17566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="602" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="16" t="s">
         <v>1166</v>
       </c>
@@ -17562,7 +17586,7 @@
         <v>5726</v>
       </c>
     </row>
-    <row r="603" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="16" t="s">
         <v>1167</v>
       </c>
@@ -17582,7 +17606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="604" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="16" t="s">
         <v>1169</v>
       </c>
@@ -17602,7 +17626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="605" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="16" t="s">
         <v>1171</v>
       </c>
@@ -17622,7 +17646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="16" t="s">
         <v>1089</v>
       </c>
@@ -17642,7 +17666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="607" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
         <v>1174</v>
       </c>
@@ -17662,7 +17686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="608" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
         <v>1176</v>
       </c>
@@ -17682,7 +17706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="609" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
         <v>1178</v>
       </c>
@@ -17702,7 +17726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="610" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
         <v>1180</v>
       </c>
@@ -17722,7 +17746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="611" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
         <v>1182</v>
       </c>
@@ -17742,7 +17766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="612" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
         <v>1184</v>
       </c>
@@ -17762,7 +17786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="613" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
         <v>1186</v>
       </c>
@@ -17782,7 +17806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="614" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
         <v>1188</v>
       </c>
@@ -17802,7 +17826,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="615" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
         <v>1190</v>
       </c>
@@ -17822,7 +17846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="616" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
         <v>1192</v>
       </c>
@@ -17842,7 +17866,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="617" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
         <v>1193</v>
       </c>
@@ -17862,7 +17886,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="618" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
         <v>1194</v>
       </c>
@@ -17882,7 +17906,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="619" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
         <v>1197</v>
       </c>
@@ -17902,7 +17926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="620" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
         <v>1198</v>
       </c>
@@ -17922,7 +17946,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="621" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
         <v>1199</v>
       </c>
@@ -17942,7 +17966,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="622" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
         <v>1201</v>
       </c>
@@ -17962,7 +17986,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="623" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
         <v>1203</v>
       </c>
@@ -17982,7 +18006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="624" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
         <v>1205</v>
       </c>
@@ -18002,7 +18026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="625" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
         <v>1207</v>
       </c>
@@ -18022,7 +18046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="626" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
         <v>1210</v>
       </c>
@@ -18042,7 +18066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="627" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
         <v>1212</v>
       </c>
@@ -18062,7 +18086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="628" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
         <v>1214</v>
       </c>
@@ -18082,7 +18106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="629" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
         <v>1026</v>
       </c>
@@ -18102,7 +18126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="630" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
         <v>989</v>
       </c>
@@ -18122,7 +18146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="631" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
         <v>1218</v>
       </c>
@@ -18142,7 +18166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="632" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
         <v>1220</v>
       </c>
@@ -18162,7 +18186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="633" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="20" t="s">
         <v>1222</v>
       </c>
@@ -18182,7 +18206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="634" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
         <v>1224</v>
       </c>
@@ -18202,7 +18226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="635" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
         <v>1226</v>
       </c>
@@ -18222,7 +18246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="636" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
         <v>1230</v>
       </c>
@@ -18242,7 +18266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="637" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
         <v>1232</v>
       </c>
@@ -18262,7 +18286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="638" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
         <v>1234</v>
       </c>
@@ -18282,7 +18306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="639" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
         <v>1236</v>
       </c>
@@ -18302,7 +18326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="640" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
         <v>1238</v>
       </c>
@@ -18322,7 +18346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="641" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="20" t="s">
         <v>1241</v>
       </c>
@@ -18342,7 +18366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="642" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
         <v>1245</v>
       </c>
@@ -18362,7 +18386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="643" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
         <v>1247</v>
       </c>
@@ -18382,7 +18406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="644" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
         <v>1249</v>
       </c>
@@ -18402,7 +18426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="645" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
         <v>1251</v>
       </c>
@@ -18422,7 +18446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="646" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
         <v>1253</v>
       </c>
@@ -18442,7 +18466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="647" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
         <v>1255</v>
       </c>
@@ -18462,7 +18486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="648" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
         <v>1257</v>
       </c>
@@ -18482,7 +18506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="649" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
         <v>1261</v>
       </c>
@@ -18502,7 +18526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="650" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="20" t="s">
         <v>1197</v>
       </c>
@@ -18522,7 +18546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
         <v>1262</v>
       </c>
@@ -18542,7 +18566,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="652" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
         <v>1263</v>
       </c>
@@ -18562,7 +18586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="653" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
         <v>1264</v>
       </c>
@@ -18582,7 +18606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="654" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
         <v>1266</v>
       </c>
@@ -18602,7 +18626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="655" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
         <v>1268</v>
       </c>
@@ -18622,7 +18646,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="656" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
         <v>1270</v>
       </c>
@@ -18642,7 +18666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="657" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
         <v>1272</v>
       </c>
@@ -18662,7 +18686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="658" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
         <v>1274</v>
       </c>
@@ -18682,7 +18706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="659" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
         <v>1276</v>
       </c>
@@ -18702,7 +18726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="660" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
         <v>1278</v>
       </c>
@@ -18722,7 +18746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="661" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="20" t="s">
         <v>1280</v>
       </c>
@@ -18742,7 +18766,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="662" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
         <v>1283</v>
       </c>
@@ -18762,7 +18786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="663" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
         <v>1285</v>
       </c>
@@ -18782,7 +18806,7 @@
         <v>13915</v>
       </c>
     </row>
-    <row r="664" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
         <v>1287</v>
       </c>
@@ -18802,7 +18826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="665" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
         <v>1289</v>
       </c>
@@ -18822,7 +18846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="666" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
         <v>1291</v>
       </c>
@@ -18842,7 +18866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="667" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
         <v>1293</v>
       </c>
@@ -18862,7 +18886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="668" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
         <v>1295</v>
       </c>
@@ -18882,7 +18906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="669" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
         <v>1297</v>
       </c>
@@ -18902,7 +18926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="670" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
         <v>630</v>
       </c>
@@ -18922,7 +18946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="671" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="20" t="s">
         <v>1299</v>
       </c>
@@ -18942,7 +18966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
         <v>1301</v>
       </c>
@@ -18962,7 +18986,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="673" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
         <v>1302</v>
       </c>
@@ -18982,7 +19006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="674" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
         <v>1304</v>
       </c>
@@ -19002,7 +19026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="675" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
         <v>1306</v>
       </c>
@@ -19022,7 +19046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="676" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
         <v>1308</v>
       </c>
@@ -19042,7 +19066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="677" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="20" t="s">
         <v>1310</v>
       </c>
@@ -19062,7 +19086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="678" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
         <v>1312</v>
       </c>
@@ -19082,7 +19106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="679" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
         <v>470</v>
       </c>
@@ -19102,7 +19126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="680" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
         <v>1315</v>
       </c>
@@ -19122,7 +19146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="681" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
         <v>1317</v>
       </c>
@@ -19142,7 +19166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="682" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
         <v>1319</v>
       </c>
@@ -19162,7 +19186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="683" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
         <v>1321</v>
       </c>
@@ -19182,7 +19206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="684" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
         <v>1323</v>
       </c>
@@ -19202,7 +19226,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="685" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
         <v>1325</v>
       </c>
@@ -19222,7 +19246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="686" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
         <v>1327</v>
       </c>
@@ -19242,7 +19266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="687" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
         <v>1329</v>
       </c>
@@ -19262,7 +19286,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="688" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="20" t="s">
         <v>1332</v>
       </c>
@@ -19282,7 +19306,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="689" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
         <v>1334</v>
       </c>
@@ -19302,7 +19326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="690" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="22" t="s">
         <v>1336</v>
       </c>
@@ -19322,7 +19346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="691" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
         <v>1338</v>
       </c>
@@ -19340,7 +19364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="692" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
         <v>1340</v>
       </c>
@@ -19358,7 +19382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="693" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
         <v>1343</v>
       </c>
@@ -19376,7 +19400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="694" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="20" t="s">
         <v>1345</v>
       </c>
@@ -19394,7 +19418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
         <v>1347</v>
       </c>
@@ -19412,7 +19436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="696" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
         <v>1349</v>
       </c>
@@ -19430,7 +19454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="697" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
         <v>1351</v>
       </c>
@@ -19448,7 +19472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="698" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
         <v>1353</v>
       </c>
@@ -19466,7 +19490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="699" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
         <v>1355</v>
       </c>
@@ -19484,7 +19508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="700" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
         <v>1357</v>
       </c>
@@ -19502,7 +19526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="701" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
         <v>1359</v>
       </c>
@@ -19520,7 +19544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="702" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
         <v>1360</v>
       </c>
@@ -19538,7 +19562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="703" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
         <v>1361</v>
       </c>
@@ -19556,7 +19580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="704" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
         <v>623</v>
       </c>
@@ -19574,7 +19598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="705" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
         <v>628</v>
       </c>
@@ -19592,7 +19616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
         <v>1363</v>
       </c>
@@ -19610,7 +19634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="707" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
         <v>1365</v>
       </c>
@@ -19628,7 +19652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="708" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
         <v>1366</v>
       </c>
@@ -19646,7 +19670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="709" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
         <v>1197</v>
       </c>
@@ -19664,7 +19688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="710" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
         <v>1369</v>
       </c>
@@ -19682,7 +19706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="711" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
         <v>1371</v>
       </c>
@@ -19700,7 +19724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="712" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
         <v>1372</v>
       </c>
@@ -19718,7 +19742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
         <v>1374</v>
       </c>
@@ -19736,7 +19760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="714" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
         <v>1376</v>
       </c>
@@ -19754,7 +19778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="715" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
         <v>1378</v>
       </c>
@@ -19772,7 +19796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
         <v>1379</v>
       </c>
@@ -19790,7 +19814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="717" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
         <v>1198</v>
       </c>
@@ -19808,7 +19832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
         <v>1381</v>
       </c>
@@ -19826,7 +19850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="719" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
         <v>1383</v>
       </c>
@@ -19844,7 +19868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
         <v>1385</v>
       </c>
@@ -19862,7 +19886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
         <v>1387</v>
       </c>
@@ -19880,7 +19904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="722" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
         <v>1389</v>
       </c>
@@ -19898,7 +19922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
         <v>1391</v>
       </c>
@@ -19916,7 +19940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
         <v>1393</v>
       </c>
@@ -19934,7 +19958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="725" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
         <v>1395</v>
       </c>
@@ -19952,7 +19976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="726" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
         <v>1397</v>
       </c>
@@ -19970,7 +19994,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="727" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
         <v>1399</v>
       </c>
@@ -19988,7 +20012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="728" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
         <v>1400</v>
       </c>
@@ -20006,7 +20030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="729" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="25" t="s">
         <v>1402</v>
       </c>
@@ -20024,7 +20048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="730" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="25" t="s">
         <v>1404</v>
       </c>
@@ -20042,7 +20066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="731" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="25" t="s">
         <v>1406</v>
       </c>
@@ -20060,7 +20084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="732" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="25" t="s">
         <v>1408</v>
       </c>
@@ -20078,7 +20102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="733" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="25" t="s">
         <v>1285</v>
       </c>
@@ -20096,7 +20120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="734" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="25" t="s">
         <v>1410</v>
       </c>
@@ -20114,7 +20138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="735" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="25" t="s">
         <v>1289</v>
       </c>
@@ -20132,7 +20156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="25" t="s">
         <v>1412</v>
       </c>
@@ -20150,7 +20174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="737" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="25" t="s">
         <v>1414</v>
       </c>
@@ -20168,7 +20192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="738" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="25" t="s">
         <v>1416</v>
       </c>
@@ -20186,7 +20210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="739" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="25" t="s">
         <v>1418</v>
       </c>
@@ -20204,7 +20228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="740" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="25" t="s">
         <v>1420</v>
       </c>
@@ -20222,7 +20246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="741" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="25" t="s">
         <v>1422</v>
       </c>
@@ -20240,7 +20264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="742" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="25" t="s">
         <v>1424</v>
       </c>
@@ -20258,7 +20282,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="743" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="25" t="s">
         <v>1426</v>
       </c>
@@ -20276,7 +20300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="744" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="25" t="s">
         <v>1428</v>
       </c>
@@ -20294,7 +20318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="745" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="25" t="s">
         <v>1278</v>
       </c>
@@ -20312,7 +20336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="746" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="25" t="s">
         <v>1430</v>
       </c>
@@ -20330,7 +20354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="747" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="25" t="s">
         <v>1432</v>
       </c>
@@ -20348,7 +20372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="748" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="25" t="s">
         <v>1434</v>
       </c>
@@ -20366,7 +20390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="749" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="25" t="s">
         <v>1436</v>
       </c>
@@ -20384,7 +20408,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="750" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="25" t="s">
         <v>1438</v>
       </c>
@@ -20402,7 +20426,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="751" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="25" t="s">
         <v>1440</v>
       </c>
@@ -20420,7 +20444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="752" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="28" t="s">
         <v>1442</v>
       </c>
@@ -20438,7 +20462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="753" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="25" t="s">
         <v>1374</v>
       </c>
@@ -20456,7 +20480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="754" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="25" t="s">
         <v>1445</v>
       </c>
@@ -20474,7 +20498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="28" t="s">
         <v>1447</v>
       </c>
@@ -20492,7 +20516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="756" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="25" t="s">
         <v>1449</v>
       </c>
@@ -20510,7 +20534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="757" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="25" t="s">
         <v>1451</v>
       </c>
@@ -20528,7 +20552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="758" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="25" t="s">
         <v>1453</v>
       </c>
@@ -20546,7 +20570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="28" t="s">
         <v>1455</v>
       </c>
@@ -20564,7 +20588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="25" t="s">
         <v>1457</v>
       </c>
@@ -20582,7 +20606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="761" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="25" t="s">
         <v>1459</v>
       </c>
@@ -20600,7 +20624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="25" t="s">
         <v>513</v>
       </c>
@@ -20618,7 +20642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="763" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="19" t="s">
@@ -20634,7 +20658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="764" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="19" t="s">
@@ -20650,7 +20674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="765" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="19" t="s">
@@ -20666,7 +20690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="766" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="19" t="s">
@@ -20682,7 +20706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="767" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="19" t="s">
@@ -20698,7 +20722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="768" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="19" t="s">
@@ -20714,7 +20738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="769" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="19" t="s">
@@ -20730,7 +20754,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="770" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="19" t="s">
@@ -20746,7 +20770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="771" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="19" t="s">
@@ -20762,7 +20786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="772" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:6" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="19" t="s">
@@ -20778,7 +20802,11 @@
         <v>1465</v>
       </c>
     </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E773" s="43"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>